--- a/Code/Results/Cases/Case_4_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.898466188965784</v>
+        <v>0.5991200276118605</v>
       </c>
       <c r="C2">
-        <v>0.5098424940367465</v>
+        <v>0.1697399270884432</v>
       </c>
       <c r="D2">
-        <v>0.2054537406101815</v>
+        <v>0.07956700250065296</v>
       </c>
       <c r="E2">
-        <v>0.2343418250757239</v>
+        <v>0.1329857292504002</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3649733644417665</v>
+        <v>0.3087939921585274</v>
       </c>
       <c r="H2">
-        <v>0.2479192872371812</v>
+        <v>0.4533695470216799</v>
       </c>
       <c r="I2">
-        <v>0.161682845445263</v>
+        <v>0.3157090693811675</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8730191341374862</v>
+        <v>0.3011909661693366</v>
       </c>
       <c r="N2">
-        <v>0.5785781367733165</v>
+        <v>0.9113989737215178</v>
       </c>
       <c r="O2">
-        <v>1.244354307898845</v>
+        <v>1.452456590346543</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.655897187600573</v>
+        <v>0.5236023706505648</v>
       </c>
       <c r="C3">
-        <v>0.4491626514740972</v>
+        <v>0.1503981895707227</v>
       </c>
       <c r="D3">
-        <v>0.1781647141256286</v>
+        <v>0.07203563985159178</v>
       </c>
       <c r="E3">
-        <v>0.2047913661072158</v>
+        <v>0.1264605457262675</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3267095016827852</v>
+        <v>0.3021107930165527</v>
       </c>
       <c r="H3">
-        <v>0.2357053070024051</v>
+        <v>0.4541211505721634</v>
       </c>
       <c r="I3">
-        <v>0.1587972718582975</v>
+        <v>0.3186110459157732</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7562378378176717</v>
+        <v>0.2676756553880324</v>
       </c>
       <c r="N3">
-        <v>0.5940513662486637</v>
+        <v>0.9187644222937976</v>
       </c>
       <c r="O3">
-        <v>1.137287722616833</v>
+        <v>1.439573425276791</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.506963049511427</v>
+        <v>0.4771125849678128</v>
       </c>
       <c r="C4">
-        <v>0.4118892175505948</v>
+        <v>0.1384557726621836</v>
       </c>
       <c r="D4">
-        <v>0.1615601002702363</v>
+        <v>0.06744487001265043</v>
       </c>
       <c r="E4">
-        <v>0.1871335085685715</v>
+        <v>0.1225733953228669</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3040573833719975</v>
+        <v>0.2982940009326853</v>
       </c>
       <c r="H4">
-        <v>0.2287340136579701</v>
+        <v>0.4548499962488961</v>
       </c>
       <c r="I4">
-        <v>0.1575811393017119</v>
+        <v>0.3206390374463517</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6849919973208358</v>
+        <v>0.2471461241541633</v>
       </c>
       <c r="N4">
-        <v>0.6044248797448901</v>
+        <v>0.9236801844738025</v>
       </c>
       <c r="O4">
-        <v>1.074428819589201</v>
+        <v>1.432820275224572</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.446254775055479</v>
+        <v>0.4581381430849092</v>
       </c>
       <c r="C5">
-        <v>0.396691052688027</v>
+        <v>0.1335726409637061</v>
       </c>
       <c r="D5">
-        <v>0.1548269174876822</v>
+        <v>0.06558252851750979</v>
       </c>
       <c r="E5">
-        <v>0.1800477585763289</v>
+        <v>0.1210191052567922</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.295021644003711</v>
+        <v>0.2968104808139316</v>
       </c>
       <c r="H5">
-        <v>0.2260184971812293</v>
+        <v>0.4552142098076359</v>
       </c>
       <c r="I5">
-        <v>0.1572176043190225</v>
+        <v>0.3215272345280695</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6560549523694235</v>
+        <v>0.2387925623148703</v>
       </c>
       <c r="N5">
-        <v>0.6088643807152891</v>
+        <v>0.9257823688332749</v>
       </c>
       <c r="O5">
-        <v>1.049486867335048</v>
+        <v>1.430358710282547</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.436172732520788</v>
+        <v>0.4549857038853702</v>
       </c>
       <c r="C6">
-        <v>0.3941667300750566</v>
+        <v>0.1327608107579579</v>
       </c>
       <c r="D6">
-        <v>0.1537107598925473</v>
+        <v>0.0652737977423925</v>
       </c>
       <c r="E6">
-        <v>0.1788774712865617</v>
+        <v>0.1207628063175861</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2935325868506595</v>
+        <v>0.2965684760571747</v>
       </c>
       <c r="H6">
-        <v>0.2255749471701165</v>
+        <v>0.4552787453282718</v>
       </c>
       <c r="I6">
-        <v>0.1571649979348209</v>
+        <v>0.3216784462735909</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6512552538518648</v>
+        <v>0.2374062099950649</v>
       </c>
       <c r="N6">
-        <v>0.6096141679026772</v>
+        <v>0.9261374144483199</v>
       </c>
       <c r="O6">
-        <v>1.045384522203022</v>
+        <v>1.429967491683641</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.506144405186461</v>
+        <v>0.4768568068860191</v>
       </c>
       <c r="C7">
-        <v>0.4116842923094453</v>
+        <v>0.1383899835495299</v>
       </c>
       <c r="D7">
-        <v>0.1614691652010976</v>
+        <v>0.06741971966449967</v>
       </c>
       <c r="E7">
-        <v>0.187037518128804</v>
+        <v>0.1225523134801918</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3039347552114293</v>
+        <v>0.2982737030529989</v>
       </c>
       <c r="H7">
-        <v>0.2286968933303797</v>
+        <v>0.4548546360938985</v>
       </c>
       <c r="I7">
-        <v>0.1575757117406091</v>
+        <v>0.3206507660302655</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6846013770014139</v>
+        <v>0.2470334148465696</v>
       </c>
       <c r="N7">
-        <v>0.6044839025136071</v>
+        <v>0.9237081344535767</v>
       </c>
       <c r="O7">
-        <v>1.074089781648127</v>
+        <v>1.432785902659248</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.814816594538286</v>
+        <v>0.5731074284447857</v>
       </c>
       <c r="C8">
-        <v>0.4889202421503001</v>
+        <v>0.1630848298498222</v>
       </c>
       <c r="D8">
-        <v>0.1960102878279031</v>
+        <v>0.07696323364339719</v>
       </c>
       <c r="E8">
-        <v>0.2240442663814761</v>
+        <v>0.1307109224938827</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3515949761163029</v>
+        <v>0.3064299667847621</v>
       </c>
       <c r="H8">
-        <v>0.2435936750885759</v>
+        <v>0.4535731927511506</v>
       </c>
       <c r="I8">
-        <v>0.1605678479922013</v>
+        <v>0.3166585028950522</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8326459657142706</v>
+        <v>0.2896247451436409</v>
       </c>
       <c r="N8">
-        <v>0.5837276331638819</v>
+        <v>0.9138569766462226</v>
       </c>
       <c r="O8">
-        <v>1.206808532749619</v>
+        <v>1.447773947952811</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.421028986715044</v>
+        <v>0.7608496201409594</v>
       </c>
       <c r="C9">
-        <v>0.6405032477298107</v>
+        <v>0.2109759311953781</v>
       </c>
       <c r="D9">
-        <v>0.2651666247672608</v>
+        <v>0.09594469734088307</v>
       </c>
       <c r="E9">
-        <v>0.3010689729894906</v>
+        <v>0.1476691886578436</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4525323652018756</v>
+        <v>0.3247116763272118</v>
       </c>
       <c r="H9">
-        <v>0.2773548189148869</v>
+        <v>0.4531833944583212</v>
       </c>
       <c r="I9">
-        <v>0.1712093575841926</v>
+        <v>0.3107887422026891</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.127528741724568</v>
+        <v>0.3735364594047041</v>
       </c>
       <c r="N9">
-        <v>0.5502982873214322</v>
+        <v>0.8976575044168982</v>
       </c>
       <c r="O9">
-        <v>1.492359278475448</v>
+        <v>1.486377124928651</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.868313379550727</v>
+        <v>0.8981307944973764</v>
       </c>
       <c r="C10">
-        <v>0.7523302244492527</v>
+        <v>0.2458280698084536</v>
       </c>
       <c r="D10">
-        <v>0.3171759779584278</v>
+        <v>0.1100553780321718</v>
       </c>
       <c r="E10">
-        <v>0.3612719453241198</v>
+        <v>0.1607316634992983</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5324292990438124</v>
+        <v>0.3395565554569373</v>
       </c>
       <c r="H10">
-        <v>0.3054640665018269</v>
+        <v>0.4541945252757813</v>
       </c>
       <c r="I10">
-        <v>0.1824771290226401</v>
+        <v>0.3076787927742757</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.348372939762811</v>
+        <v>0.43543258628263</v>
       </c>
       <c r="N10">
-        <v>0.5306850597387438</v>
+        <v>0.8876540957502854</v>
       </c>
       <c r="O10">
-        <v>1.721188840190422</v>
+        <v>1.520401820139</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.072534966153626</v>
+        <v>0.9604340237167435</v>
       </c>
       <c r="C11">
-        <v>0.8033968292432689</v>
+        <v>0.2616095106208434</v>
       </c>
       <c r="D11">
-        <v>0.3411765993413951</v>
+        <v>0.1165111183398153</v>
       </c>
       <c r="E11">
-        <v>0.3896629929333884</v>
+        <v>0.1668091599760047</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5703052975764109</v>
+        <v>0.346620921555413</v>
       </c>
       <c r="H11">
-        <v>0.3190968264251097</v>
+        <v>0.4549370065847</v>
       </c>
       <c r="I11">
-        <v>0.1884806911170891</v>
+        <v>0.3065269134972937</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.450093701356707</v>
+        <v>0.463646354398989</v>
       </c>
       <c r="N11">
-        <v>0.5229593881271981</v>
+        <v>0.8835150007506272</v>
       </c>
       <c r="O11">
-        <v>1.830289463810971</v>
+        <v>1.537120671741974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.150004998985423</v>
+        <v>0.9840045959477379</v>
       </c>
       <c r="C12">
-        <v>0.8227709673594177</v>
+        <v>0.267574854102719</v>
       </c>
       <c r="D12">
-        <v>0.3503211400701645</v>
+        <v>0.1189610334463254</v>
       </c>
       <c r="E12">
-        <v>0.4005783384107318</v>
+        <v>0.16913030599396</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5848934586575751</v>
+        <v>0.3493410791451907</v>
       </c>
       <c r="H12">
-        <v>0.3243922922956841</v>
+        <v>0.4552588370278414</v>
       </c>
       <c r="I12">
-        <v>0.1908918835239319</v>
+        <v>0.3061286679005377</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.488824368912105</v>
+        <v>0.4743383890284321</v>
       </c>
       <c r="N12">
-        <v>0.5202170312261956</v>
+        <v>0.8820067778865095</v>
       </c>
       <c r="O12">
-        <v>1.872400689666563</v>
+        <v>1.543630825923259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.133313933591808</v>
+        <v>0.9789292630291015</v>
       </c>
       <c r="C13">
-        <v>0.8185966470553581</v>
+        <v>0.266290592579395</v>
       </c>
       <c r="D13">
-        <v>0.3483490917626284</v>
+        <v>0.1184331664032214</v>
       </c>
       <c r="E13">
-        <v>0.3982198826034988</v>
+        <v>0.168629523828244</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5817403024571206</v>
+        <v>0.3487532374029314</v>
       </c>
       <c r="H13">
-        <v>0.3232457108776003</v>
+        <v>0.4551877156245041</v>
       </c>
       <c r="I13">
-        <v>0.1903662695550281</v>
+        <v>0.3062127471957616</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.480473120777177</v>
+        <v>0.4720353095700176</v>
       </c>
       <c r="N13">
-        <v>0.5207993136436784</v>
+        <v>0.8823289695297944</v>
       </c>
       <c r="O13">
-        <v>1.863294530895928</v>
+        <v>1.542220772344336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.078905583301434</v>
+        <v>0.9623736429442715</v>
       </c>
       <c r="C14">
-        <v>0.8049899740195769</v>
+        <v>0.2621004998214573</v>
       </c>
       <c r="D14">
-        <v>0.3419277617605303</v>
+        <v>0.1167125688667454</v>
       </c>
       <c r="E14">
-        <v>0.3905575928027787</v>
+        <v>0.166999725074966</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5715004057406645</v>
+        <v>0.3468438064788586</v>
       </c>
       <c r="H14">
-        <v>0.3195297528018557</v>
+        <v>0.4549626684525379</v>
       </c>
       <c r="I14">
-        <v>0.1886762309945134</v>
+        <v>0.3064933882483345</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.453275680168716</v>
+        <v>0.464525832846121</v>
       </c>
       <c r="N14">
-        <v>0.522730034788232</v>
+        <v>0.8833897326918105</v>
       </c>
       <c r="O14">
-        <v>1.833737537829364</v>
+        <v>1.537652673110586</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.045597445783983</v>
+        <v>0.9522299062742263</v>
       </c>
       <c r="C15">
-        <v>0.7966604784003835</v>
+        <v>0.2595325401387925</v>
       </c>
       <c r="D15">
-        <v>0.3380020228068474</v>
+        <v>0.1156593386019864</v>
       </c>
       <c r="E15">
-        <v>0.3858862308686213</v>
+        <v>0.1660040038013122</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5652609068423686</v>
+        <v>0.3456800976290282</v>
       </c>
       <c r="H15">
-        <v>0.3172713002872456</v>
+        <v>0.4548301181538363</v>
       </c>
       <c r="I15">
-        <v>0.1876593330107674</v>
+        <v>0.3066702350909836</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.436644915850678</v>
+        <v>0.4599271127780042</v>
       </c>
       <c r="N15">
-        <v>0.5239368577719219</v>
+        <v>0.8840471852059153</v>
       </c>
       <c r="O15">
-        <v>1.815739244462321</v>
+        <v>1.534877922372232</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.854984440440148</v>
+        <v>0.8940560764587531</v>
       </c>
       <c r="C16">
-        <v>0.748997524762359</v>
+        <v>0.2447952255695327</v>
       </c>
       <c r="D16">
-        <v>0.3156149313302308</v>
+        <v>0.1096342179542518</v>
       </c>
       <c r="E16">
-        <v>0.3594383914376138</v>
+        <v>0.160337230894541</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5299869267091282</v>
+        <v>0.339101170298008</v>
       </c>
       <c r="H16">
-        <v>0.3045911083643489</v>
+        <v>0.454151691007084</v>
       </c>
       <c r="I16">
-        <v>0.1821034136861712</v>
+        <v>0.3077593727342816</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.341753093878452</v>
+        <v>0.4335898876055353</v>
       </c>
       <c r="N16">
-        <v>0.5312149606331857</v>
+        <v>0.8879328748131599</v>
       </c>
       <c r="O16">
-        <v>1.714166060162455</v>
+        <v>1.519334228992648</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.738260709452732</v>
+        <v>0.8583298838755695</v>
       </c>
       <c r="C17">
-        <v>0.7198136065273673</v>
+        <v>0.2357354908196214</v>
       </c>
       <c r="D17">
-        <v>0.3019733794470909</v>
+        <v>0.1059473969196176</v>
       </c>
       <c r="E17">
-        <v>0.3434843296559364</v>
+        <v>0.1568956993794117</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5087568553379782</v>
+        <v>0.3351451446818743</v>
       </c>
       <c r="H17">
-        <v>0.2970366883296265</v>
+        <v>0.4538078874580833</v>
       </c>
       <c r="I17">
-        <v>0.1789278168966071</v>
+        <v>0.3084949517678446</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.28388295868659</v>
+        <v>0.417447364458198</v>
       </c>
       <c r="N17">
-        <v>0.5359939640893785</v>
+        <v>0.8904220065045791</v>
       </c>
       <c r="O17">
-        <v>1.653189388647434</v>
+        <v>1.510116954668916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.671193062617078</v>
+        <v>0.8377673906026075</v>
       </c>
       <c r="C18">
-        <v>0.7030457036474331</v>
+        <v>0.2305177176087909</v>
       </c>
       <c r="D18">
-        <v>0.2941588002872635</v>
+        <v>0.1038302922053873</v>
       </c>
       <c r="E18">
-        <v>0.3344012290421077</v>
+        <v>0.1549289412923045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.496688314546418</v>
+        <v>0.3328990340635301</v>
       </c>
       <c r="H18">
-        <v>0.2927704557644972</v>
+        <v>0.4536367295645931</v>
       </c>
       <c r="I18">
-        <v>0.1771831805957831</v>
+        <v>0.3089427694324343</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.250713995995142</v>
+        <v>0.4081679741074424</v>
       </c>
       <c r="N18">
-        <v>0.5388546267998109</v>
+        <v>0.8918924224888016</v>
       </c>
       <c r="O18">
-        <v>1.618583331273271</v>
+        <v>1.504932177641166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.648496104492949</v>
+        <v>0.8308029623369748</v>
       </c>
       <c r="C19">
-        <v>0.6973712201730677</v>
+        <v>0.2287498998726392</v>
       </c>
       <c r="D19">
-        <v>0.2915181556505502</v>
+        <v>0.1031140711249066</v>
       </c>
       <c r="E19">
-        <v>0.3313412871395442</v>
+        <v>0.1542652071443982</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4926258384098361</v>
+        <v>0.332143562274851</v>
       </c>
       <c r="H19">
-        <v>0.2913391946830757</v>
+        <v>0.4535833437632135</v>
       </c>
       <c r="I19">
-        <v>0.1766062018957122</v>
+        <v>0.3090986360331343</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.239502664248718</v>
+        <v>0.4050270556664088</v>
       </c>
       <c r="N19">
-        <v>0.5398420916185884</v>
+        <v>0.8923969329752737</v>
       </c>
       <c r="O19">
-        <v>1.60694410346386</v>
+        <v>1.503196734056701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.750678838788872</v>
+        <v>0.8621344281321512</v>
       </c>
       <c r="C20">
-        <v>0.722918373586964</v>
+        <v>0.23670062618163</v>
       </c>
       <c r="D20">
-        <v>0.3034222183703292</v>
+        <v>0.1063395076020157</v>
       </c>
       <c r="E20">
-        <v>0.3451728771614242</v>
+        <v>0.1572607378604403</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5110019143024829</v>
+        <v>0.3355632369782739</v>
       </c>
       <c r="H20">
-        <v>0.2978326265053681</v>
+        <v>0.4538417337708012</v>
       </c>
       <c r="I20">
-        <v>0.1792573090378902</v>
+        <v>0.3084140873730234</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.290031073645736</v>
+        <v>0.4191652093150964</v>
       </c>
       <c r="N20">
-        <v>0.5354735710009848</v>
+        <v>0.8901530255333299</v>
       </c>
       <c r="O20">
-        <v>1.659631675993069</v>
+        <v>1.511086060751637</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.09488271604755</v>
+        <v>0.9672370450181802</v>
       </c>
       <c r="C21">
-        <v>0.8089855293785888</v>
+        <v>0.2633315252756177</v>
       </c>
       <c r="D21">
-        <v>0.3438122836141133</v>
+        <v>0.1172178072597205</v>
       </c>
       <c r="E21">
-        <v>0.3928035678925426</v>
+        <v>0.1674778988357346</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.574501242151328</v>
+        <v>0.3474034282887857</v>
       </c>
       <c r="H21">
-        <v>0.3206175138218583</v>
+        <v>0.4550276661704373</v>
       </c>
       <c r="I21">
-        <v>0.1891688008812338</v>
+        <v>0.306409926142635</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.461258240162806</v>
+        <v>0.4667313292729318</v>
       </c>
       <c r="N21">
-        <v>0.5221578708079662</v>
+        <v>0.8830765552518329</v>
       </c>
       <c r="O21">
-        <v>1.842396860607778</v>
+        <v>1.538989568982089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.320645794952213</v>
+        <v>1.035797086505397</v>
       </c>
       <c r="C22">
-        <v>0.8654514273240181</v>
+        <v>0.2806736067187217</v>
       </c>
       <c r="D22">
-        <v>0.3705396868580806</v>
+        <v>0.1243580942742426</v>
       </c>
       <c r="E22">
-        <v>0.424900989800058</v>
+        <v>0.1742705324900129</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6174449169334366</v>
+        <v>0.3554042999537472</v>
       </c>
       <c r="H22">
-        <v>0.3362901357395884</v>
+        <v>0.4560398113188882</v>
       </c>
       <c r="I22">
-        <v>0.1964555707750861</v>
+        <v>0.3053213383171354</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.574412281054123</v>
+        <v>0.4978656684050122</v>
       </c>
       <c r="N22">
-        <v>0.5145288023250245</v>
+        <v>0.8787965153996637</v>
       </c>
       <c r="O22">
-        <v>1.966531433775856</v>
+        <v>1.558270288398006</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.200068190855973</v>
+        <v>0.9992176532288113</v>
       </c>
       <c r="C23">
-        <v>0.8352918625884058</v>
+        <v>0.27142363640138</v>
       </c>
       <c r="D23">
-        <v>0.3562421291519513</v>
+        <v>0.1205443854717885</v>
       </c>
       <c r="E23">
-        <v>0.4076743943728189</v>
+        <v>0.1706345516812107</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5943841562737902</v>
+        <v>0.3511099677255345</v>
       </c>
       <c r="H23">
-        <v>0.3278498587673511</v>
+        <v>0.4554779040001051</v>
       </c>
       <c r="I23">
-        <v>0.1924884159077926</v>
+        <v>0.3058820450799118</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.513894991583683</v>
+        <v>0.4812444031505976</v>
       </c>
       <c r="N23">
-        <v>0.5184984618452617</v>
+        <v>0.8810493027665629</v>
       </c>
       <c r="O23">
-        <v>1.899822436220745</v>
+        <v>1.547884048642374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.745064485051898</v>
+        <v>0.8604144653156141</v>
       </c>
       <c r="C24">
-        <v>0.7215146768603518</v>
+        <v>0.2362643171579748</v>
       </c>
       <c r="D24">
-        <v>0.3027671111912866</v>
+        <v>0.1061622265822422</v>
       </c>
       <c r="E24">
-        <v>0.344409208779723</v>
+        <v>0.1570956671543016</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5099864985873808</v>
+        <v>0.335374129439387</v>
       </c>
       <c r="H24">
-        <v>0.2974725441699917</v>
+        <v>0.4538263493104751</v>
       </c>
       <c r="I24">
-        <v>0.1791080940307133</v>
+        <v>0.3084505685412218</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.287251197458332</v>
+        <v>0.4183885680354962</v>
       </c>
       <c r="N24">
-        <v>0.535708489111947</v>
+        <v>0.8902745091573081</v>
       </c>
       <c r="O24">
-        <v>1.656717721264556</v>
+        <v>1.51064757172449</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.256802372129584</v>
+        <v>0.7101721559600946</v>
       </c>
       <c r="C25">
-        <v>0.5994450417457244</v>
+        <v>0.1980781703783521</v>
       </c>
       <c r="D25">
-        <v>0.246272684430906</v>
+        <v>0.09078090627765789</v>
       </c>
       <c r="E25">
-        <v>0.2796664893982808</v>
+        <v>0.1429769281099809</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.424308729043517</v>
+        <v>0.3195191595788032</v>
       </c>
       <c r="H25">
-        <v>0.267681852542367</v>
+        <v>0.4530612203367212</v>
       </c>
       <c r="I25">
-        <v>0.1677659401230507</v>
+        <v>0.3121660819163523</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.047127099840814</v>
+        <v>0.3507934831627253</v>
       </c>
       <c r="N25">
-        <v>0.5585122726095193</v>
+        <v>0.9017063333736957</v>
       </c>
       <c r="O25">
-        <v>1.41204413843306</v>
+        <v>1.474942876916032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5991200276118605</v>
+        <v>1.898466188965784</v>
       </c>
       <c r="C2">
-        <v>0.1697399270884432</v>
+        <v>0.5098424940372865</v>
       </c>
       <c r="D2">
-        <v>0.07956700250065296</v>
+        <v>0.2054537406101815</v>
       </c>
       <c r="E2">
-        <v>0.1329857292504002</v>
+        <v>0.2343418250757665</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3087939921585274</v>
+        <v>0.3649733644416955</v>
       </c>
       <c r="H2">
-        <v>0.4533695470216799</v>
+        <v>0.2479192872371812</v>
       </c>
       <c r="I2">
-        <v>0.3157090693811675</v>
+        <v>0.1616828454452772</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3011909661693366</v>
+        <v>0.8730191341374862</v>
       </c>
       <c r="N2">
-        <v>0.9113989737215178</v>
+        <v>0.5785781367732383</v>
       </c>
       <c r="O2">
-        <v>1.452456590346543</v>
+        <v>1.244354307898817</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5236023706505648</v>
+        <v>1.655897187600601</v>
       </c>
       <c r="C3">
-        <v>0.1503981895707227</v>
+        <v>0.4491626514743245</v>
       </c>
       <c r="D3">
-        <v>0.07203563985159178</v>
+        <v>0.1781647141254865</v>
       </c>
       <c r="E3">
-        <v>0.1264605457262675</v>
+        <v>0.2047913661072016</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3021107930165527</v>
+        <v>0.3267095016827568</v>
       </c>
       <c r="H3">
-        <v>0.4541211505721634</v>
+        <v>0.2357053070022914</v>
       </c>
       <c r="I3">
-        <v>0.3186110459157732</v>
+        <v>0.1587972718582833</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2676756553880324</v>
+        <v>0.7562378378176788</v>
       </c>
       <c r="N3">
-        <v>0.9187644222937976</v>
+        <v>0.5940513662486566</v>
       </c>
       <c r="O3">
-        <v>1.439573425276791</v>
+        <v>1.137287722616776</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4771125849678128</v>
+        <v>1.506963049511398</v>
       </c>
       <c r="C4">
-        <v>0.1384557726621836</v>
+        <v>0.4118892175503959</v>
       </c>
       <c r="D4">
-        <v>0.06744487001265043</v>
+        <v>0.1615601002702363</v>
       </c>
       <c r="E4">
-        <v>0.1225733953228669</v>
+        <v>0.187133508568543</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2982940009326853</v>
+        <v>0.3040573833720259</v>
       </c>
       <c r="H4">
-        <v>0.4548499962488961</v>
+        <v>0.2287340136579701</v>
       </c>
       <c r="I4">
-        <v>0.3206390374463517</v>
+        <v>0.1575811393017048</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2471461241541633</v>
+        <v>0.6849919973208287</v>
       </c>
       <c r="N4">
-        <v>0.9236801844738025</v>
+        <v>0.6044248797449328</v>
       </c>
       <c r="O4">
-        <v>1.432820275224572</v>
+        <v>1.074428819589201</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4581381430849092</v>
+        <v>1.446254775055451</v>
       </c>
       <c r="C5">
-        <v>0.1335726409637061</v>
+        <v>0.396691052688027</v>
       </c>
       <c r="D5">
-        <v>0.06558252851750979</v>
+        <v>0.1548269174875827</v>
       </c>
       <c r="E5">
-        <v>0.1210191052567922</v>
+        <v>0.1800477585763574</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2968104808139316</v>
+        <v>0.2950216440037252</v>
       </c>
       <c r="H5">
-        <v>0.4552142098076359</v>
+        <v>0.2260184971811157</v>
       </c>
       <c r="I5">
-        <v>0.3215272345280695</v>
+        <v>0.1572176043190403</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2387925623148703</v>
+        <v>0.6560549523694235</v>
       </c>
       <c r="N5">
-        <v>0.9257823688332749</v>
+        <v>0.608864380715346</v>
       </c>
       <c r="O5">
-        <v>1.430358710282547</v>
+        <v>1.049486867334991</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4549857038853702</v>
+        <v>1.436172732520788</v>
       </c>
       <c r="C6">
-        <v>0.1327608107579579</v>
+        <v>0.3941667300753693</v>
       </c>
       <c r="D6">
-        <v>0.0652737977423925</v>
+        <v>0.1537107598926895</v>
       </c>
       <c r="E6">
-        <v>0.1207628063175861</v>
+        <v>0.1788774712865617</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2965684760571747</v>
+        <v>0.2935325868507022</v>
       </c>
       <c r="H6">
-        <v>0.4552787453282718</v>
+        <v>0.2255749471702302</v>
       </c>
       <c r="I6">
-        <v>0.3216784462735909</v>
+        <v>0.1571649979348173</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2374062099950649</v>
+        <v>0.6512552538518577</v>
       </c>
       <c r="N6">
-        <v>0.9261374144483199</v>
+        <v>0.6096141679026701</v>
       </c>
       <c r="O6">
-        <v>1.429967491683641</v>
+        <v>1.045384522202994</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4768568068860191</v>
+        <v>1.506144405186433</v>
       </c>
       <c r="C7">
-        <v>0.1383899835495299</v>
+        <v>0.4116842923096726</v>
       </c>
       <c r="D7">
-        <v>0.06741971966449967</v>
+        <v>0.161469165200927</v>
       </c>
       <c r="E7">
-        <v>0.1225523134801918</v>
+        <v>0.1870375181287756</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2982737030529989</v>
+        <v>0.3039347552114293</v>
       </c>
       <c r="H7">
-        <v>0.4548546360938985</v>
+        <v>0.2286968933303939</v>
       </c>
       <c r="I7">
-        <v>0.3206507660302655</v>
+        <v>0.1575757117406091</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2470334148465696</v>
+        <v>0.6846013770014068</v>
       </c>
       <c r="N7">
-        <v>0.9237081344535767</v>
+        <v>0.6044839025136142</v>
       </c>
       <c r="O7">
-        <v>1.432785902659248</v>
+        <v>1.074089781648098</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5731074284447857</v>
+        <v>1.814816594538144</v>
       </c>
       <c r="C8">
-        <v>0.1630848298498222</v>
+        <v>0.48892024214976</v>
       </c>
       <c r="D8">
-        <v>0.07696323364339719</v>
+        <v>0.1960102878281162</v>
       </c>
       <c r="E8">
-        <v>0.1307109224938827</v>
+        <v>0.2240442663814619</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3064299667847621</v>
+        <v>0.3515949761163597</v>
       </c>
       <c r="H8">
-        <v>0.4535731927511506</v>
+        <v>0.2435936750885759</v>
       </c>
       <c r="I8">
-        <v>0.3166585028950522</v>
+        <v>0.1605678479922226</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2896247451436409</v>
+        <v>0.8326459657142564</v>
       </c>
       <c r="N8">
-        <v>0.9138569766462226</v>
+        <v>0.5837276331638748</v>
       </c>
       <c r="O8">
-        <v>1.447773947952811</v>
+        <v>1.206808532749619</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7608496201409594</v>
+        <v>2.421028986714987</v>
       </c>
       <c r="C9">
-        <v>0.2109759311953781</v>
+        <v>0.6405032477298107</v>
       </c>
       <c r="D9">
-        <v>0.09594469734088307</v>
+        <v>0.2651666247672608</v>
       </c>
       <c r="E9">
-        <v>0.1476691886578436</v>
+        <v>0.3010689729894835</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3247116763272118</v>
+        <v>0.4525323652019324</v>
       </c>
       <c r="H9">
-        <v>0.4531833944583212</v>
+        <v>0.2773548189148869</v>
       </c>
       <c r="I9">
-        <v>0.3107887422026891</v>
+        <v>0.1712093575842069</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3735364594047041</v>
+        <v>1.127528741724568</v>
       </c>
       <c r="N9">
-        <v>0.8976575044168982</v>
+        <v>0.5502982873214322</v>
       </c>
       <c r="O9">
-        <v>1.486377124928651</v>
+        <v>1.492359278475448</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8981307944973764</v>
+        <v>2.868313379550784</v>
       </c>
       <c r="C10">
-        <v>0.2458280698084536</v>
+        <v>0.7523302244488264</v>
       </c>
       <c r="D10">
-        <v>0.1100553780321718</v>
+        <v>0.3171759779586267</v>
       </c>
       <c r="E10">
-        <v>0.1607316634992983</v>
+        <v>0.3612719453240771</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3395565554569373</v>
+        <v>0.5324292990438693</v>
       </c>
       <c r="H10">
-        <v>0.4541945252757813</v>
+        <v>0.3054640665018269</v>
       </c>
       <c r="I10">
-        <v>0.3076787927742757</v>
+        <v>0.1824771290226401</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.43543258628263</v>
+        <v>1.348372939762783</v>
       </c>
       <c r="N10">
-        <v>0.8876540957502854</v>
+        <v>0.5306850597387438</v>
       </c>
       <c r="O10">
-        <v>1.520401820139</v>
+        <v>1.721188840190308</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9604340237167435</v>
+        <v>3.072534966153682</v>
       </c>
       <c r="C11">
-        <v>0.2616095106208434</v>
+        <v>0.8033968292432974</v>
       </c>
       <c r="D11">
-        <v>0.1165111183398153</v>
+        <v>0.3411765993414519</v>
       </c>
       <c r="E11">
-        <v>0.1668091599760047</v>
+        <v>0.3896629929333812</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.346620921555413</v>
+        <v>0.5703052975764251</v>
       </c>
       <c r="H11">
-        <v>0.4549370065847</v>
+        <v>0.3190968264251097</v>
       </c>
       <c r="I11">
-        <v>0.3065269134972937</v>
+        <v>0.1884806911170855</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.463646354398989</v>
+        <v>1.450093701356721</v>
       </c>
       <c r="N11">
-        <v>0.8835150007506272</v>
+        <v>0.5229593881272407</v>
       </c>
       <c r="O11">
-        <v>1.537120671741974</v>
+        <v>1.830289463810971</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9840045959477379</v>
+        <v>3.150004998985594</v>
       </c>
       <c r="C12">
-        <v>0.267574854102719</v>
+        <v>0.822770967359304</v>
       </c>
       <c r="D12">
-        <v>0.1189610334463254</v>
+        <v>0.3503211400700792</v>
       </c>
       <c r="E12">
-        <v>0.16913030599396</v>
+        <v>0.4005783384106891</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3493410791451907</v>
+        <v>0.5848934586575893</v>
       </c>
       <c r="H12">
-        <v>0.4552588370278414</v>
+        <v>0.3243922922956841</v>
       </c>
       <c r="I12">
-        <v>0.3061286679005377</v>
+        <v>0.1908918835239319</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4743383890284321</v>
+        <v>1.488824368912091</v>
       </c>
       <c r="N12">
-        <v>0.8820067778865095</v>
+        <v>0.5202170312261458</v>
       </c>
       <c r="O12">
-        <v>1.543630825923259</v>
+        <v>1.872400689666563</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9789292630291015</v>
+        <v>3.133313933591694</v>
       </c>
       <c r="C13">
-        <v>0.266290592579395</v>
+        <v>0.818596647055557</v>
       </c>
       <c r="D13">
-        <v>0.1184331664032214</v>
+        <v>0.3483490917626852</v>
       </c>
       <c r="E13">
-        <v>0.168629523828244</v>
+        <v>0.3982198826034846</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3487532374029314</v>
+        <v>0.581740302457149</v>
       </c>
       <c r="H13">
-        <v>0.4551877156245041</v>
+        <v>0.3232457108776146</v>
       </c>
       <c r="I13">
-        <v>0.3062127471957616</v>
+        <v>0.1903662695550459</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4720353095700176</v>
+        <v>1.480473120777191</v>
       </c>
       <c r="N13">
-        <v>0.8823289695297944</v>
+        <v>0.5207993136436713</v>
       </c>
       <c r="O13">
-        <v>1.542220772344336</v>
+        <v>1.863294530895956</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9623736429442715</v>
+        <v>3.078905583301491</v>
       </c>
       <c r="C14">
-        <v>0.2621004998214573</v>
+        <v>0.8049899740197475</v>
       </c>
       <c r="D14">
-        <v>0.1167125688667454</v>
+        <v>0.3419277617604877</v>
       </c>
       <c r="E14">
-        <v>0.166999725074966</v>
+        <v>0.3905575928027645</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3468438064788586</v>
+        <v>0.5715004057406361</v>
       </c>
       <c r="H14">
-        <v>0.4549626684525379</v>
+        <v>0.3195297528018699</v>
       </c>
       <c r="I14">
-        <v>0.3064933882483345</v>
+        <v>0.1886762309945276</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.464525832846121</v>
+        <v>1.453275680168744</v>
       </c>
       <c r="N14">
-        <v>0.8833897326918105</v>
+        <v>0.5227300347882178</v>
       </c>
       <c r="O14">
-        <v>1.537652673110586</v>
+        <v>1.833737537829393</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9522299062742263</v>
+        <v>3.045597445783926</v>
       </c>
       <c r="C15">
-        <v>0.2595325401387925</v>
+        <v>0.7966604784001845</v>
       </c>
       <c r="D15">
-        <v>0.1156593386019864</v>
+        <v>0.3380020228068474</v>
       </c>
       <c r="E15">
-        <v>0.1660040038013122</v>
+        <v>0.3858862308686071</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3456800976290282</v>
+        <v>0.5652609068423828</v>
       </c>
       <c r="H15">
-        <v>0.4548301181538363</v>
+        <v>0.3172713002873593</v>
       </c>
       <c r="I15">
-        <v>0.3066702350909836</v>
+        <v>0.1876593330107745</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4599271127780042</v>
+        <v>1.43664491585065</v>
       </c>
       <c r="N15">
-        <v>0.8840471852059153</v>
+        <v>0.5239368577719077</v>
       </c>
       <c r="O15">
-        <v>1.534877922372232</v>
+        <v>1.815739244462378</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8940560764587531</v>
+        <v>2.854984440440205</v>
       </c>
       <c r="C16">
-        <v>0.2447952255695327</v>
+        <v>0.7489975247621317</v>
       </c>
       <c r="D16">
-        <v>0.1096342179542518</v>
+        <v>0.3156149313303303</v>
       </c>
       <c r="E16">
-        <v>0.160337230894541</v>
+        <v>0.3594383914376067</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.339101170298008</v>
+        <v>0.5299869267091282</v>
       </c>
       <c r="H16">
-        <v>0.454151691007084</v>
+        <v>0.3045911083643631</v>
       </c>
       <c r="I16">
-        <v>0.3077593727342816</v>
+        <v>0.1821034136861854</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4335898876055353</v>
+        <v>1.341753093878481</v>
       </c>
       <c r="N16">
-        <v>0.8879328748131599</v>
+        <v>0.5312149606331928</v>
       </c>
       <c r="O16">
-        <v>1.519334228992648</v>
+        <v>1.714166060162427</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8583298838755695</v>
+        <v>2.738260709452845</v>
       </c>
       <c r="C17">
-        <v>0.2357354908196214</v>
+        <v>0.7198136065277083</v>
       </c>
       <c r="D17">
-        <v>0.1059473969196176</v>
+        <v>0.3019733794468777</v>
       </c>
       <c r="E17">
-        <v>0.1568956993794117</v>
+        <v>0.3434843296559222</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3351451446818743</v>
+        <v>0.5087568553380351</v>
       </c>
       <c r="H17">
-        <v>0.4538078874580833</v>
+        <v>0.2970366883296123</v>
       </c>
       <c r="I17">
-        <v>0.3084949517678446</v>
+        <v>0.1789278168966213</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.417447364458198</v>
+        <v>1.28388295868659</v>
       </c>
       <c r="N17">
-        <v>0.8904220065045791</v>
+        <v>0.5359939640893217</v>
       </c>
       <c r="O17">
-        <v>1.510116954668916</v>
+        <v>1.65318938864749</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8377673906026075</v>
+        <v>2.671193062617078</v>
       </c>
       <c r="C18">
-        <v>0.2305177176087909</v>
+        <v>0.7030457036477173</v>
       </c>
       <c r="D18">
-        <v>0.1038302922053873</v>
+        <v>0.2941588002871214</v>
       </c>
       <c r="E18">
-        <v>0.1549289412923045</v>
+        <v>0.3344012290421219</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3328990340635301</v>
+        <v>0.4966883145463896</v>
       </c>
       <c r="H18">
-        <v>0.4536367295645931</v>
+        <v>0.2927704557644972</v>
       </c>
       <c r="I18">
-        <v>0.3089427694324343</v>
+        <v>0.1771831805957795</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4081679741074424</v>
+        <v>1.250713995995142</v>
       </c>
       <c r="N18">
-        <v>0.8918924224888016</v>
+        <v>0.5388546267998606</v>
       </c>
       <c r="O18">
-        <v>1.504932177641166</v>
+        <v>1.618583331273214</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8308029623369748</v>
+        <v>2.648496104492835</v>
       </c>
       <c r="C19">
-        <v>0.2287498998726392</v>
+        <v>0.6973712201728119</v>
       </c>
       <c r="D19">
-        <v>0.1031140711249066</v>
+        <v>0.2915181556506639</v>
       </c>
       <c r="E19">
-        <v>0.1542652071443982</v>
+        <v>0.3313412871395585</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.332143562274851</v>
+        <v>0.4926258384098503</v>
       </c>
       <c r="H19">
-        <v>0.4535833437632135</v>
+        <v>0.2913391946829762</v>
       </c>
       <c r="I19">
-        <v>0.3090986360331343</v>
+        <v>0.1766062018957264</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4050270556664088</v>
+        <v>1.239502664248718</v>
       </c>
       <c r="N19">
-        <v>0.8923969329752737</v>
+        <v>0.5398420916185884</v>
       </c>
       <c r="O19">
-        <v>1.503196734056701</v>
+        <v>1.606944103463803</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8621344281321512</v>
+        <v>2.750678838788644</v>
       </c>
       <c r="C20">
-        <v>0.23670062618163</v>
+        <v>0.7229183735870777</v>
       </c>
       <c r="D20">
-        <v>0.1063395076020157</v>
+        <v>0.3034222183702155</v>
       </c>
       <c r="E20">
-        <v>0.1572607378604403</v>
+        <v>0.3451728771614526</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3355632369782739</v>
+        <v>0.5110019143025255</v>
       </c>
       <c r="H20">
-        <v>0.4538417337708012</v>
+        <v>0.2978326265054818</v>
       </c>
       <c r="I20">
-        <v>0.3084140873730234</v>
+        <v>0.1792573090378866</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4191652093150964</v>
+        <v>1.290031073645736</v>
       </c>
       <c r="N20">
-        <v>0.8901530255333299</v>
+        <v>0.5354735710010274</v>
       </c>
       <c r="O20">
-        <v>1.511086060751637</v>
+        <v>1.65963167599304</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9672370450181802</v>
+        <v>3.09488271604738</v>
       </c>
       <c r="C21">
-        <v>0.2633315252756177</v>
+        <v>0.8089855293786172</v>
       </c>
       <c r="D21">
-        <v>0.1172178072597205</v>
+        <v>0.3438122836140849</v>
       </c>
       <c r="E21">
-        <v>0.1674778988357346</v>
+        <v>0.392803567892571</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3474034282887857</v>
+        <v>0.574501242151257</v>
       </c>
       <c r="H21">
-        <v>0.4550276661704373</v>
+        <v>0.3206175138217446</v>
       </c>
       <c r="I21">
-        <v>0.306409926142635</v>
+        <v>0.1891688008812338</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4667313292729318</v>
+        <v>1.461258240162834</v>
       </c>
       <c r="N21">
-        <v>0.8830765552518329</v>
+        <v>0.522157870808023</v>
       </c>
       <c r="O21">
-        <v>1.538989568982089</v>
+        <v>1.842396860607778</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.035797086505397</v>
+        <v>3.32064579495227</v>
       </c>
       <c r="C22">
-        <v>0.2806736067187217</v>
+        <v>0.8654514273238476</v>
       </c>
       <c r="D22">
-        <v>0.1243580942742426</v>
+        <v>0.3705396868580806</v>
       </c>
       <c r="E22">
-        <v>0.1742705324900129</v>
+        <v>0.4249009898000509</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.3554042999537472</v>
+        <v>0.6174449169334508</v>
       </c>
       <c r="H22">
-        <v>0.4560398113188882</v>
+        <v>0.3362901357397021</v>
       </c>
       <c r="I22">
-        <v>0.3053213383171354</v>
+        <v>0.1964555707750826</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4978656684050122</v>
+        <v>1.574412281054123</v>
       </c>
       <c r="N22">
-        <v>0.8787965153996637</v>
+        <v>0.5145288023250103</v>
       </c>
       <c r="O22">
-        <v>1.558270288398006</v>
+        <v>1.966531433775884</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9992176532288113</v>
+        <v>3.200068190855859</v>
       </c>
       <c r="C23">
-        <v>0.27142363640138</v>
+        <v>0.8352918625882637</v>
       </c>
       <c r="D23">
-        <v>0.1205443854717885</v>
+        <v>0.3562421291520081</v>
       </c>
       <c r="E23">
-        <v>0.1706345516812107</v>
+        <v>0.4076743943727976</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3511099677255345</v>
+        <v>0.5943841562738186</v>
       </c>
       <c r="H23">
-        <v>0.4554779040001051</v>
+        <v>0.3278498587672516</v>
       </c>
       <c r="I23">
-        <v>0.3058820450799118</v>
+        <v>0.1924884159077749</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4812444031505976</v>
+        <v>1.513894991583669</v>
       </c>
       <c r="N23">
-        <v>0.8810493027665629</v>
+        <v>0.5184984618453043</v>
       </c>
       <c r="O23">
-        <v>1.547884048642374</v>
+        <v>1.899822436220802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8604144653156141</v>
+        <v>2.745064485052183</v>
       </c>
       <c r="C24">
-        <v>0.2362643171579748</v>
+        <v>0.7215146768603518</v>
       </c>
       <c r="D24">
-        <v>0.1061622265822422</v>
+        <v>0.3027671111911019</v>
       </c>
       <c r="E24">
-        <v>0.1570956671543016</v>
+        <v>0.3444092087797017</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.335374129439387</v>
+        <v>0.5099864985873239</v>
       </c>
       <c r="H24">
-        <v>0.4538263493104751</v>
+        <v>0.2974725441701054</v>
       </c>
       <c r="I24">
-        <v>0.3084505685412218</v>
+        <v>0.1791080940307133</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4183885680354962</v>
+        <v>1.287251197458332</v>
       </c>
       <c r="N24">
-        <v>0.8902745091573081</v>
+        <v>0.5357084891119968</v>
       </c>
       <c r="O24">
-        <v>1.51064757172449</v>
+        <v>1.656717721264613</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7101721559600946</v>
+        <v>2.256802372129528</v>
       </c>
       <c r="C25">
-        <v>0.1980781703783521</v>
+        <v>0.5994450417457244</v>
       </c>
       <c r="D25">
-        <v>0.09078090627765789</v>
+        <v>0.2462726844306644</v>
       </c>
       <c r="E25">
-        <v>0.1429769281099809</v>
+        <v>0.2796664893983021</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3195191595788032</v>
+        <v>0.4243087290434886</v>
       </c>
       <c r="H25">
-        <v>0.4530612203367212</v>
+        <v>0.2676818525424807</v>
       </c>
       <c r="I25">
-        <v>0.3121660819163523</v>
+        <v>0.1677659401230471</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3507934831627253</v>
+        <v>1.047127099840822</v>
       </c>
       <c r="N25">
-        <v>0.9017063333736957</v>
+        <v>0.5585122726095193</v>
       </c>
       <c r="O25">
-        <v>1.474942876916032</v>
+        <v>1.412044138433089</v>
       </c>
     </row>
   </sheetData>
